--- a/cats.xlsx
+++ b/cats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="333">
   <si>
     <t>Декоративный камень</t>
   </si>
@@ -1126,9 +1126,6 @@
   </si>
   <si>
     <t>Купить старинный кирпич по привлекательной цене в Челябинске вы можете в нашем интернет-магазине!</t>
-  </si>
-  <si>
-    <t>Кампанели</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,9 +1173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1216,7 +1213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1286,7 +1283,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1460,11 +1457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">
@@ -3192,17 +3194,6 @@
       </c>
       <c r="H69" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>333</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
